--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB7406-C419-49AE-B466-49A43C68CF04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EEC288-8E58-47E8-A1EE-A4218882D79E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -28865,7 +28865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674597FE-DA28-4503-A562-C400897BB2FD}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -29570,8 +29570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6648F8-47DB-4151-B0DF-238910B5BA51}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29603,7 +29603,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>156</v>
       </c>
     </row>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EEC288-8E58-47E8-A1EE-A4218882D79E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30586D08-DF24-45DE-8F97-3C668F693F1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="5" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -29570,7 +29570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6648F8-47DB-4151-B0DF-238910B5BA51}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -29713,8 +29713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773C6032-7B50-4A90-B6BB-9E4A02C16E71}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29746,7 +29746,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>176</v>
       </c>
     </row>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30586D08-DF24-45DE-8F97-3C668F693F1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67035DA4-6F88-4CEE-8437-F26BF527970D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="5" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="6" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -27174,87 +27174,87 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="330" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="270" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -29713,7 +29713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773C6032-7B50-4A90-B6BB-9E4A02C16E71}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -29874,8 +29874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EC12B8-CA5C-4707-A0AC-550369D43369}">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29907,7 +29907,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>199</v>
       </c>
     </row>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67035DA4-6F88-4CEE-8437-F26BF527970D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9F7C0A-BA06-46BE-A803-7B38D9F8FCAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="6" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -29874,7 +29874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EC12B8-CA5C-4707-A0AC-550369D43369}">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -30227,8 +30227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BC3FFC-AC22-42F0-928A-804EF9CE2D20}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30260,17 +30260,17 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>253</v>
       </c>
     </row>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9F7C0A-BA06-46BE-A803-7B38D9F8FCAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B37A09-84E3-4F49-8A7B-9DF25C963E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="8" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -30227,7 +30227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BC3FFC-AC22-42F0-928A-804EF9CE2D20}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -30382,8 +30382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C991020E-2D61-44FF-85F1-CE77CD51BA45}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30415,7 +30415,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>272</v>
       </c>
     </row>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B37A09-84E3-4F49-8A7B-9DF25C963E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DC4FB6-E9BC-4D0E-98F2-4598CF010ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="8" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -27321,8 +27321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D70F37-D713-4708-B0F3-9391B5A5A932}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27354,7 +27354,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>304</v>
       </c>
     </row>
@@ -30382,7 +30382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C991020E-2D61-44FF-85F1-CE77CD51BA45}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DC4FB6-E9BC-4D0E-98F2-4598CF010ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519DAF44-443F-4D6E-9E0B-E7754F8A640B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="10" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -27321,7 +27321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D70F37-D713-4708-B0F3-9391B5A5A932}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -27422,8 +27422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA87FDAE-9DA0-48DE-A325-760C58B1C01B}">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27455,7 +27455,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>317</v>
       </c>
     </row>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519DAF44-443F-4D6E-9E0B-E7754F8A640B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6296C514-88BF-4CF4-B1FB-A18F754B3E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="10" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
@@ -27423,7 +27423,7 @@
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27460,7 +27460,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>318</v>
       </c>
     </row>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6296C514-88BF-4CF4-B1FB-A18F754B3E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B517865-3A98-4240-8DFA-EC3F12E5DB33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="10" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="11" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -27422,7 +27422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA87FDAE-9DA0-48DE-A325-760C58B1C01B}">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -27763,8 +27763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E459BF8-C23B-4423-9932-87259EC45E7C}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27796,7 +27796,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>369</v>
       </c>
     </row>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B517865-3A98-4240-8DFA-EC3F12E5DB33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6840EA-8738-4B2E-BCFE-86F4C1931EB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="11" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="12" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -27763,7 +27763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E459BF8-C23B-4423-9932-87259EC45E7C}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -27960,8 +27960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD259A51-6FC9-4FAD-93B5-A9445C7133DA}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27993,7 +27993,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>398</v>
       </c>
     </row>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6840EA-8738-4B2E-BCFE-86F4C1931EB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A8DF38-FCCA-4FCB-B1E8-5198C4B46223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="12" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="6" activeTab="13" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -27960,7 +27960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD259A51-6FC9-4FAD-93B5-A9445C7133DA}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -28169,8 +28169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EC9A03-5324-43F5-ABB2-C9664A7C737E}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28202,7 +28202,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>429</v>
       </c>
     </row>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A8DF38-FCCA-4FCB-B1E8-5198C4B46223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B4A91F-F44E-48CA-A4A3-D11A6ABCCDB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="6" activeTab="13" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="14" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -27169,7 +27169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -27422,7 +27422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA87FDAE-9DA0-48DE-A325-760C58B1C01B}">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -28169,8 +28169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EC9A03-5324-43F5-ABB2-C9664A7C737E}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28414,8 +28414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EA28B6-0031-4BD0-9D57-9789B1B70944}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28447,7 +28447,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>464</v>
       </c>
     </row>
@@ -29499,7 +29499,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>146</v>
       </c>
@@ -29509,7 +29509,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>148</v>
       </c>
@@ -29519,12 +29519,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>150</v>
       </c>
@@ -29534,7 +29534,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
@@ -29642,17 +29642,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>166</v>
       </c>
@@ -29662,12 +29662,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B4A91F-F44E-48CA-A4A3-D11A6ABCCDB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E2A24-5594-4A54-9D7B-49F1F93E4DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="14" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -26996,8 +26996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A9A08-B539-4965-9ADC-4686A76372BB}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27035,7 +27035,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -28414,7 +28414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EA28B6-0031-4BD0-9D57-9789B1B70944}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/QUESTION-BANK.xlsx
+++ b/QUESTION-BANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navsingh15\Documents\java-prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E2A24-5594-4A54-9D7B-49F1F93E4DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAB4F5F-901C-42A7-8444-F98F275FCC7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{9CE053B4-1DDD-4637-9512-374564236E55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRAY" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="517">
   <si>
     <t>1. Array  </t>
   </si>
@@ -1600,6 +1600,9 @@
   </si>
   <si>
     <t>Disjoint Set (Or Union-Find) | Set 1 (Detect Cycle in an Undirected Graph)</t>
+  </si>
+  <si>
+    <t>My solution was to use hashmap. Online solution -- sort the array and take 2 pointers i=0 &amp; j=1… if arr[j]-arr[i] &lt; target diff then increment j else increment i https://www.youtube.com/watch?v=XGrXiVi7Ces&amp;ab_channel=Pepcoding</t>
   </si>
 </sst>
 </file>
@@ -26996,7 +26999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A9A08-B539-4965-9ADC-4686A76372BB}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -28863,91 +28866,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674597FE-DA28-4503-A562-C400897BB2FD}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="2" max="2" width="209.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -30227,7 +30234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BC3FFC-AC22-42F0-928A-804EF9CE2D20}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
